--- a/TestData/Production/Web_POS/Order/salesperson_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/salesperson_order_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\TestData\TestData\Production\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -100,13 +105,16 @@
     <t>tax_invoice</t>
   </si>
   <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
     <t>TC_1</t>
   </si>
   <si>
     <t>239060824lbv</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
+    <t>Zwingautomation78@gmail.com</t>
   </si>
   <si>
     <t>O_ST_User11_p11</t>
@@ -142,10 +150,10 @@
     <t>TC_2</t>
   </si>
   <si>
-    <t>307260624P3E</t>
-  </si>
-  <si>
-    <t>userone_p1 </t>
+    <t>239060824gqY</t>
+  </si>
+  <si>
+    <t>O_ST_user1_p1</t>
   </si>
   <si>
     <t>TC_3</t>
@@ -171,28 +179,27 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
+        <scheme val="none"/>
       </rPr>
       <t>8906118412556</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
         <scheme val="none"/>
       </rPr>
       <t xml:space="preserve"> : 1, </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
+        <scheme val="none"/>
       </rPr>
       <t>8906118410781 : 1</t>
     </r>
@@ -223,51 +230,27 @@
   </si>
   <si>
     <t>O_ST_user2_p2</t>
-  </si>
-  <si>
-    <t>admin@sunrise.com</t>
-  </si>
-  <si>
-    <t>492060824tPH</t>
-  </si>
-  <si>
-    <t>O_ST_user1_p1	</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>O_ST_user1_p1</t>
-  </si>
-  <si>
-    <t>Zwingautomation78@gmail.com</t>
-  </si>
-  <si>
-    <t>239060824gqY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -276,49 +259,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="none"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -326,9 +279,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -337,71 +290,51 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
@@ -693,34 +626,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:AJ39"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" sqref="G2:H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.4296875" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" customWidth="1"/>
-    <col min="3" max="3" width="54.640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42969" customWidth="1"/>
+    <col min="2" max="2" width="24.09766" customWidth="1"/>
+    <col min="3" max="3" width="54.64063" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="28.02734375" customWidth="1"/>
-    <col min="6" max="6" width="13.9296875" customWidth="1"/>
-    <col min="7" max="7" width="14.45703125" customWidth="1"/>
-    <col min="8" max="8" width="15.70703125" customWidth="1"/>
-    <col min="9" max="12" width="11.4296875" customWidth="1"/>
-    <col min="13" max="13" width="35.890625" customWidth="1"/>
-    <col min="14" max="22" width="11.4296875" customWidth="1"/>
-    <col min="23" max="23" width="14.45703125" customWidth="1"/>
-    <col min="24" max="25" width="11.4296875" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" customWidth="1"/>
-    <col min="27" max="1025" width="11.4296875" customWidth="1"/>
+    <col min="5" max="5" width="28.02734" customWidth="1"/>
+    <col min="6" max="6" width="13.92969" customWidth="1"/>
+    <col min="7" max="7" width="14.45703" customWidth="1"/>
+    <col min="8" max="8" width="15.70703" customWidth="1"/>
+    <col min="9" max="12" width="11.42969" customWidth="1"/>
+    <col min="13" max="13" width="35.89063" customWidth="1"/>
+    <col min="14" max="22" width="11.42969" customWidth="1"/>
+    <col min="23" max="23" width="14.45703" customWidth="1"/>
+    <col min="24" max="25" width="11.42969" customWidth="1"/>
+    <col min="26" max="26" width="22.14063" customWidth="1"/>
+    <col min="27" max="29" width="11.42969" customWidth="1"/>
+    <col min="30" max="30" width="11.42969" customWidth="1"/>
+    <col min="31" max="1025" width="11.42969" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="25.5">
+    <row r="1" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,808 +739,841 @@
       <c r="AC1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="36">
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>1234</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="7">
+        <v>36</v>
+      </c>
+      <c r="O2" s="8">
         <v>45384</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" ht="24">
+      <c r="AD2">
+        <v>4352542332</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>1234</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>64</v>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="7">
+        <v>36</v>
+      </c>
+      <c r="O3" s="8">
         <v>45384</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="24">
+      <c r="AD3">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>1234</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>46</v>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>123456</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="7">
+        <v>36</v>
+      </c>
+      <c r="O4" s="8">
         <v>45384</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="24">
+        <v>36</v>
+      </c>
+      <c r="AD4">
+        <v>6363463463</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>1234</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>64</v>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F5" s="1">
         <v>123456</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="7">
+        <v>36</v>
+      </c>
+      <c r="O5" s="8">
         <v>45384</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="P5" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="22.2" customHeight="1">
+        <v>49</v>
+      </c>
+      <c r="AD5">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="6" ht="22.2" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>1234</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>64</v>
+      <c r="E6" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="1">
         <v>123456</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="7">
+        <v>36</v>
+      </c>
+      <c r="O6" s="8">
         <v>45384</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="P6" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="24">
+        <v>49</v>
+      </c>
+      <c r="AD6">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>1234</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>64</v>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>123456</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="7">
+        <v>36</v>
+      </c>
+      <c r="O7" s="8">
         <v>45384</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="24">
+        <v>49</v>
+      </c>
+      <c r="AD7">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>1234</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>64</v>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>123456</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="7">
+        <v>36</v>
+      </c>
+      <c r="O8" s="8">
         <v>45384</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
+      <c r="P8" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="24">
+        <v>49</v>
+      </c>
+      <c r="AD8">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1234</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>64</v>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="1">
         <v>123456</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="7">
+        <v>36</v>
+      </c>
+      <c r="O9" s="8">
         <v>45384</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="7" t="s">
+      <c r="P9" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="24">
+        <v>55</v>
+      </c>
+      <c r="AD9">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>1234</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>64</v>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>123456</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="7">
+        <v>36</v>
+      </c>
+      <c r="O10" s="8">
         <v>45384</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="7" t="s">
+      <c r="P10" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="24">
+        <v>55</v>
+      </c>
+      <c r="AD10">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>1234</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="1">
         <v>123456</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="7">
+        <v>36</v>
+      </c>
+      <c r="O11" s="8">
         <v>45384</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>49</v>
+      </c>
+      <c r="AD11">
+        <v>5484552565</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1615,9 +1581,9 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1631,169 +1597,171 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="24">
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>1234</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>59</v>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>123456</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="7">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8">
         <v>45384</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="7" t="s">
+      <c r="P13" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="17" ht="15"/>
-    <row r="28" spans="31:36">
+        <v>49</v>
+      </c>
+      <c r="AD13">
+        <v>7418529631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="28">
       <c r="AE28" s="1"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="5"/>
+      <c r="AI28" s="6"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="31:36">
+    <row r="29">
       <c r="AE29" s="1"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="5"/>
+      <c r="AI29" s="6"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="31:36">
+    <row r="30">
       <c r="AE30" s="1"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="5"/>
+      <c r="AI30" s="6"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="31:36">
+    <row r="31">
       <c r="AE31" s="1"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="5"/>
+      <c r="AI31" s="6"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="31:36">
+    <row r="32">
       <c r="AE32" s="1"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="5"/>
+      <c r="AI32" s="6"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="31:36">
+    <row r="33">
       <c r="AE33" s="1"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="5"/>
+      <c r="AI33" s="6"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="31:36">
+    <row r="34">
       <c r="AE34" s="1"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
-      <c r="AI34" s="5"/>
+      <c r="AI34" s="6"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="31:36">
+    <row r="35">
       <c r="AE35" s="1"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="5"/>
+      <c r="AI35" s="6"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="31:36">
+    <row r="36">
       <c r="AE36" s="1"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="5"/>
+      <c r="AI36" s="6"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="31:36">
+    <row r="37">
       <c r="AE37" s="1"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
-      <c r="AI37" s="5"/>
+      <c r="AI37" s="6"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="31:36">
+    <row r="38">
       <c r="AE38" s="1"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -1801,18 +1769,18 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="31:36">
+    <row r="39">
       <c r="AE39" s="1"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="5"/>
+      <c r="AI39" s="6"/>
       <c r="AJ39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="1" differentFirst="0" differentOddEven="0">
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/TestData/Production/Web_POS/Order/salesperson_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/salesperson_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\TestData\TestData\Production\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,13 +214,16 @@
     <t>TC_8</t>
   </si>
   <si>
-    <t>Sarth jha</t>
+    <t>Samarth</t>
   </si>
   <si>
     <t>TC_9</t>
   </si>
   <si>
     <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
   </si>
   <si>
     <t>TC_12</t>
@@ -629,7 +632,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1563,12 +1566,24 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1234</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1">
+        <v>123456</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1599,10 +1614,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
@@ -1611,10 +1626,10 @@
         <v>1234</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
-        <v>123456</v>
+        <v>1234</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
